--- a/biology/Microbiologie/Bactérie_ammonifiante/Bactérie_ammonifiante.xlsx
+++ b/biology/Microbiologie/Bactérie_ammonifiante/Bactérie_ammonifiante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_ammonifiante</t>
+          <t>Bactérie_ammonifiante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries ammonifiantes décomposent les matières organiques azotées en ammoniac ou en ions ammonium.
 La fermentation des protéines par ces bactéries provoque une augmentation du pH, inversement chez les bactéries lactiques qui abaissent le pH lors de la fermentation des sucres.
